--- a/MinecraftAutomation/Part8/BluePrints/oak_house.xlsx
+++ b/MinecraftAutomation/Part8/BluePrints/oak_house.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MCwithCode_Automation\MinecraftAutomation\Part8\BluePrints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A07C1C-9AFD-470A-BE3B-10FDC6AE694C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AFEFEE-0109-4CB4-813C-6C98E6384D4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="5040" windowWidth="12015" windowHeight="8610" activeTab="5" xr2:uid="{683A0CA0-6565-4CAC-95C1-723194BAF182}"/>
+    <workbookView xWindow="12105" yWindow="4275" windowWidth="11415" windowHeight="8595" activeTab="1" xr2:uid="{683A0CA0-6565-4CAC-95C1-723194BAF182}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -49,15 +49,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>oak_door[harf=lower]</t>
+    <t>air</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>oak_door[harf=upper]</t>
+    <t>oak_door[half=upper]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>air</t>
+    <t>oak_door[half=lower]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA18496-14F6-45AE-990A-5CA8FD2774F3}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -639,19 +639,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -685,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -731,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
@@ -783,7 +783,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -816,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -839,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -908,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -1039,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -1085,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -1170,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -1193,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -1216,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -1239,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -1313,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7CD2DD-A21E-412A-8401-1D98BCB971DB}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
